--- a/public/excel_templates/vendor_template.xlsx
+++ b/public/excel_templates/vendor_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp 8.2\htdocs\MaxVita_WMS\public\excel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp8.2\htdocs\MaxVita\public\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79BAF674-2E72-4DDA-BC9D-A2373DE1D619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5494ED-9C57-439E-BADD-38DE7BF7AFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B499E04E-AC35-4A7D-8DF7-31AE5A8F1B29}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{B499E04E-AC35-4A7D-8DF7-31AE5A8F1B29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,28 +70,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAEAAAA"/>
+        <bgColor rgb="FFAEAAAA"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -103,16 +104,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{06922565-6E5C-4CB7-AF7C-735081530E3F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -426,7 +428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90F2B3E-EC7B-4BBF-9FBB-6B09D1189B71}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -441,26 +443,26 @@
     <col min="7" max="8" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
